--- a/data/participants_upload.xlsx
+++ b/data/participants_upload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7d548486b401ce48/Documents/교회/2025 여름수련회/icebreaker-aws/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Fun\icebreaker-aws\icebreaker_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FCA7298-6B39-450A-903C-01A2C4B212A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BC509E-A318-45BA-B633-A6F9B3CA3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB8C2A3-5CC9-46A1-A8AC-43AEA879F6CA}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>고유번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>임희서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전근영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정다빈</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F858296-6EEA-498B-A4CD-3E5A2763B59E}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,7 +524,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -534,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -545,10 +557,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -556,10 +568,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -567,9 +579,42 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
     </row>

--- a/data/participants_upload.xlsx
+++ b/data/participants_upload.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Fun\icebreaker-aws\icebreaker_project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BC509E-A318-45BA-B633-A6F9B3CA3B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C9349-378D-472B-B313-FE9C6BEBD212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB8C2A3-5CC9-46A1-A8AC-43AEA879F6CA}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CCB8C2A3-5CC9-46A1-A8AC-43AEA879F6CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
   <si>
     <t>고유번호</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>정다빈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이예림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권현우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권다혜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F858296-6EEA-498B-A4CD-3E5A2763B59E}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -618,6 +630,39 @@
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
